--- a/Area de Proceso PPQA/HGQA/HGQA_V0.1_2016_MAYO.xlsx
+++ b/Area de Proceso PPQA/HGQA/HGQA_V0.1_2016_MAYO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" hidePivotFieldList="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PDS1\DEV-SOFT\Area de Proceso PPQA\HGQA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PDS1\DEV-SOFT\Area de Proceso PPQA\HGQA\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -172,7 +172,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="215">
   <si>
     <t>Analista Responsable</t>
   </si>
@@ -579,21 +579,12 @@
     <t>Entregables y Procesos</t>
   </si>
   <si>
-    <t>PPROY_Plan de Proyecto</t>
-  </si>
-  <si>
-    <t>REGRI_Registro de Riesgos</t>
-  </si>
-  <si>
     <t>LMREQM_Lista Maestra de Requerimientos</t>
   </si>
   <si>
     <t>SOLACC_Solicitud de Accesos</t>
   </si>
   <si>
-    <t>CPROY_Cronograma de Proyecto</t>
-  </si>
-  <si>
     <t>RCREQM_Registro de Cambios a Requerimientos</t>
   </si>
   <si>
@@ -627,9 +618,6 @@
     <t>HORAS INVERTIDAS EN REVISIÓN</t>
   </si>
   <si>
-    <t>PGPROY_Proceso de Gestion</t>
-  </si>
-  <si>
     <t>ACREVPRO_Acta de Revision de Plan de Proyecto</t>
   </si>
   <si>
@@ -733,9 +721,6 @@
   </si>
   <si>
     <t>Nro. de revisiones Ejecutadas:</t>
-  </si>
-  <si>
-    <t>PGPROY_Proceso de Gestión</t>
   </si>
   <si>
     <t>ACREVPRO_Acta de Revisión de Plan de Proyecto</t>
@@ -828,6 +813,18 @@
   </si>
   <si>
     <t>0.1</t>
+  </si>
+  <si>
+    <t>CPROY_V0.1_Cronograma de Proyecto</t>
+  </si>
+  <si>
+    <t>PPGPROY_V0.1_Proceso de Gestion</t>
+  </si>
+  <si>
+    <t>PPROY_V0.1_Plan de Proyecto</t>
+  </si>
+  <si>
+    <t>REGRI_V0.1_Registro de Riesgos</t>
   </si>
 </sst>
 </file>
@@ -1950,7 +1947,7 @@
     <xf numFmtId="0" fontId="33" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="264">
+  <cellXfs count="262">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="32" applyFont="1" applyProtection="1">
       <protection locked="0"/>
@@ -2409,9 +2406,6 @@
     <xf numFmtId="0" fontId="63" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="64" fillId="24" borderId="10" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2512,9 +2506,6 @@
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="64" fillId="24" borderId="39" xfId="40" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="24" borderId="39" xfId="40" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -4084,7 +4075,6 @@
             <c:showLeaderLines val="0"/>
             <c:extLst xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
                 <c15:showLeaderLines val="0"/>
               </c:ext>
             </c:extLst>
@@ -4134,11 +4124,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="196049592"/>
-        <c:axId val="196479184"/>
+        <c:axId val="200790016"/>
+        <c:axId val="200791136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="196049592"/>
+        <c:axId val="200790016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4178,7 +4168,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196479184"/>
+        <c:crossAx val="200791136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4188,7 +4178,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196479184"/>
+        <c:axId val="200791136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4236,7 +4226,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196049592"/>
+        <c:crossAx val="200790016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4250,7 +4240,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4656,12 +4645,12 @@
         </c:dLbls>
         <c:gapWidth val="150"/>
         <c:shape val="box"/>
-        <c:axId val="196512520"/>
-        <c:axId val="196491912"/>
+        <c:axId val="246079568"/>
+        <c:axId val="246615456"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="196512520"/>
+        <c:axId val="246079568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4750,7 +4739,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196491912"/>
+        <c:crossAx val="246615456"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -4760,7 +4749,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="196491912"/>
+        <c:axId val="246615456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4865,7 +4854,7 @@
             <a:endParaRPr lang="es-PE"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="196512520"/>
+        <c:crossAx val="246079568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -7686,15 +7675,15 @@
     </row>
     <row r="2" spans="1:9" ht="15.75">
       <c r="A2" s="60"/>
-      <c r="B2" s="199" t="s">
+      <c r="B2" s="197" t="s">
         <v>58</v>
       </c>
-      <c r="C2" s="199"/>
-      <c r="D2" s="199"/>
-      <c r="E2" s="199"/>
-      <c r="F2" s="199"/>
-      <c r="G2" s="199"/>
-      <c r="H2" s="199"/>
+      <c r="C2" s="197"/>
+      <c r="D2" s="197"/>
+      <c r="E2" s="197"/>
+      <c r="F2" s="197"/>
+      <c r="G2" s="197"/>
+      <c r="H2" s="197"/>
       <c r="I2" s="60"/>
     </row>
     <row r="3" spans="1:9" ht="13.5" thickBot="1">
@@ -7733,30 +7722,30 @@
       </c>
       <c r="I4" s="60"/>
     </row>
-    <row r="5" spans="1:9" s="197" customFormat="1">
-      <c r="A5" s="190"/>
-      <c r="B5" s="191">
+    <row r="5" spans="1:9" s="195" customFormat="1">
+      <c r="A5" s="188"/>
+      <c r="B5" s="189">
         <v>1</v>
       </c>
-      <c r="C5" s="192" t="s">
-        <v>215</v>
-      </c>
-      <c r="D5" s="193">
+      <c r="C5" s="190" t="s">
+        <v>210</v>
+      </c>
+      <c r="D5" s="191">
         <v>42522</v>
       </c>
-      <c r="E5" s="194" t="s">
-        <v>191</v>
-      </c>
-      <c r="F5" s="194" t="s">
-        <v>192</v>
-      </c>
-      <c r="G5" s="195" t="s">
+      <c r="E5" s="192" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" s="192" t="s">
+        <v>187</v>
+      </c>
+      <c r="G5" s="193" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="196" t="s">
-        <v>193</v>
-      </c>
-      <c r="I5" s="190"/>
+      <c r="H5" s="194" t="s">
+        <v>188</v>
+      </c>
+      <c r="I5" s="188"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="60"/>
@@ -7845,22 +7834,22 @@
     <row r="2" spans="1:8" s="56" customFormat="1" ht="82.5" customHeight="1">
       <c r="A2" s="34"/>
       <c r="B2" s="57"/>
-      <c r="C2" s="220" t="s">
-        <v>200</v>
-      </c>
-      <c r="D2" s="221"/>
-      <c r="E2" s="222"/>
+      <c r="C2" s="218" t="s">
+        <v>195</v>
+      </c>
+      <c r="D2" s="219"/>
+      <c r="E2" s="220"/>
     </row>
     <row r="3" spans="1:8" s="56" customFormat="1">
       <c r="A3" s="34"/>
-      <c r="B3" s="198" t="s">
-        <v>199</v>
-      </c>
-      <c r="C3" s="228" t="s">
-        <v>201</v>
-      </c>
-      <c r="D3" s="229"/>
-      <c r="E3" s="230"/>
+      <c r="B3" s="196" t="s">
+        <v>194</v>
+      </c>
+      <c r="C3" s="226" t="s">
+        <v>196</v>
+      </c>
+      <c r="D3" s="227"/>
+      <c r="E3" s="228"/>
     </row>
     <row r="4" spans="1:8" s="56" customFormat="1" ht="21.75" customHeight="1">
       <c r="A4" s="34"/>
@@ -7872,12 +7861,12 @@
     </row>
     <row r="5" spans="1:8" ht="24.75" customHeight="1">
       <c r="A5" s="34"/>
-      <c r="B5" s="223" t="s">
+      <c r="B5" s="221" t="s">
         <v>66</v>
       </c>
-      <c r="C5" s="224"/>
-      <c r="D5" s="224"/>
-      <c r="E5" s="225"/>
+      <c r="C5" s="222"/>
+      <c r="D5" s="222"/>
+      <c r="E5" s="223"/>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="34"/>
@@ -7900,10 +7889,10 @@
         <v>4</v>
       </c>
       <c r="C8" s="84"/>
-      <c r="D8" s="226" t="s">
+      <c r="D8" s="224" t="s">
         <v>5</v>
       </c>
-      <c r="E8" s="227"/>
+      <c r="E8" s="225"/>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="34"/>
@@ -7918,10 +7907,10 @@
         <v>89</v>
       </c>
       <c r="C10" s="56"/>
-      <c r="D10" s="231" t="s">
+      <c r="D10" s="229" t="s">
         <v>39</v>
       </c>
-      <c r="E10" s="231"/>
+      <c r="E10" s="229"/>
     </row>
     <row r="11" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A11" s="34"/>
@@ -7936,10 +7925,10 @@
         <v>89</v>
       </c>
       <c r="C12" s="56"/>
-      <c r="D12" s="231" t="s">
+      <c r="D12" s="229" t="s">
         <v>40</v>
       </c>
-      <c r="E12" s="231"/>
+      <c r="E12" s="229"/>
     </row>
     <row r="13" spans="1:8" ht="9.9499999999999993" customHeight="1">
       <c r="A13" s="34"/>
@@ -7954,10 +7943,10 @@
         <v>89</v>
       </c>
       <c r="C14" s="56"/>
-      <c r="D14" s="231" t="s">
+      <c r="D14" s="229" t="s">
         <v>95</v>
       </c>
-      <c r="E14" s="231"/>
+      <c r="E14" s="229"/>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="32"/>
@@ -7972,10 +7961,10 @@
         <v>89</v>
       </c>
       <c r="C16" s="56"/>
-      <c r="D16" s="231" t="s">
+      <c r="D16" s="229" t="s">
         <v>41</v>
       </c>
-      <c r="E16" s="231"/>
+      <c r="E16" s="229"/>
       <c r="H16" s="36"/>
     </row>
     <row r="17" spans="1:8" s="47" customFormat="1" ht="12" customHeight="1">
@@ -7989,62 +7978,62 @@
       <c r="A18" s="32"/>
     </row>
     <row r="19" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B19" s="214" t="s">
+      <c r="B19" s="212" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="215"/>
-      <c r="D19" s="215"/>
-      <c r="E19" s="216"/>
+      <c r="C19" s="213"/>
+      <c r="D19" s="213"/>
+      <c r="E19" s="214"/>
     </row>
     <row r="20" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B20" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C20" s="217" t="s">
+      <c r="C20" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="D20" s="218"/>
-      <c r="E20" s="219"/>
+      <c r="D20" s="216"/>
+      <c r="E20" s="217"/>
     </row>
     <row r="21" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B21" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="205" t="s">
+      <c r="C21" s="203" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="206"/>
-      <c r="E21" s="207"/>
+      <c r="D21" s="204"/>
+      <c r="E21" s="205"/>
     </row>
     <row r="22" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B22" s="53" t="s">
         <v>16</v>
       </c>
-      <c r="C22" s="205" t="s">
+      <c r="C22" s="203" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="206"/>
-      <c r="E22" s="207"/>
+      <c r="D22" s="204"/>
+      <c r="E22" s="205"/>
     </row>
     <row r="23" spans="1:8" s="52" customFormat="1" ht="12.75" customHeight="1">
       <c r="B23" s="53" t="s">
         <v>2</v>
       </c>
-      <c r="C23" s="205" t="s">
+      <c r="C23" s="203" t="s">
         <v>96</v>
       </c>
-      <c r="D23" s="206"/>
-      <c r="E23" s="207"/>
+      <c r="D23" s="204"/>
+      <c r="E23" s="205"/>
     </row>
     <row r="24" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B24" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C24" s="205" t="s">
+      <c r="C24" s="203" t="s">
         <v>7</v>
       </c>
-      <c r="D24" s="206"/>
-      <c r="E24" s="207"/>
+      <c r="D24" s="204"/>
+      <c r="E24" s="205"/>
     </row>
     <row r="25" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B25" s="54"/>
@@ -8057,57 +8046,57 @@
       <c r="B26" s="45"/>
     </row>
     <row r="27" spans="1:8" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B27" s="214" t="s">
+      <c r="B27" s="212" t="s">
         <v>48</v>
       </c>
-      <c r="C27" s="215"/>
-      <c r="D27" s="215"/>
-      <c r="E27" s="216"/>
+      <c r="C27" s="213"/>
+      <c r="D27" s="213"/>
+      <c r="E27" s="214"/>
     </row>
     <row r="28" spans="1:8" s="52" customFormat="1" ht="13.5" customHeight="1">
       <c r="B28" s="40" t="s">
         <v>67</v>
       </c>
-      <c r="C28" s="217" t="s">
+      <c r="C28" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="D28" s="218"/>
-      <c r="E28" s="219"/>
+      <c r="D28" s="216"/>
+      <c r="E28" s="217"/>
     </row>
     <row r="29" spans="1:8" ht="12.75" customHeight="1">
       <c r="A29" s="32"/>
-      <c r="B29" s="211" t="s">
+      <c r="B29" s="209" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="212"/>
-      <c r="D29" s="212"/>
-      <c r="E29" s="213"/>
+      <c r="C29" s="210"/>
+      <c r="D29" s="210"/>
+      <c r="E29" s="211"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:8" ht="16.5" customHeight="1">
       <c r="A30" s="32"/>
-      <c r="B30" s="165" t="s">
+      <c r="B30" s="164" t="s">
         <v>128</v>
       </c>
-      <c r="C30" s="201" t="s">
-        <v>175</v>
-      </c>
-      <c r="D30" s="202"/>
-      <c r="E30" s="203"/>
+      <c r="C30" s="199" t="s">
+        <v>171</v>
+      </c>
+      <c r="D30" s="200"/>
+      <c r="E30" s="201"/>
       <c r="F30" s="52"/>
       <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1">
       <c r="A31" s="32"/>
-      <c r="B31" s="166" t="s">
+      <c r="B31" s="165" t="s">
         <v>130</v>
       </c>
-      <c r="C31" s="201" t="s">
-        <v>176</v>
-      </c>
-      <c r="D31" s="202"/>
-      <c r="E31" s="203"/>
+      <c r="C31" s="199" t="s">
+        <v>172</v>
+      </c>
+      <c r="D31" s="200"/>
+      <c r="E31" s="201"/>
       <c r="F31" s="52"/>
       <c r="G31" s="52"/>
     </row>
@@ -8116,11 +8105,11 @@
       <c r="B32" s="41" t="s">
         <v>8</v>
       </c>
-      <c r="C32" s="201" t="s">
+      <c r="C32" s="199" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="202"/>
-      <c r="E32" s="203"/>
+      <c r="D32" s="200"/>
+      <c r="E32" s="201"/>
       <c r="F32" s="52"/>
       <c r="G32" s="52"/>
     </row>
@@ -8129,11 +8118,11 @@
       <c r="B33" s="41" t="s">
         <v>20</v>
       </c>
-      <c r="C33" s="201" t="s">
+      <c r="C33" s="199" t="s">
         <v>68</v>
       </c>
-      <c r="D33" s="202"/>
-      <c r="E33" s="203"/>
+      <c r="D33" s="200"/>
+      <c r="E33" s="201"/>
       <c r="F33" s="52"/>
       <c r="G33" s="52"/>
     </row>
@@ -8142,174 +8131,174 @@
       <c r="B34" s="41" t="s">
         <v>1</v>
       </c>
-      <c r="C34" s="201" t="s">
+      <c r="C34" s="199" t="s">
         <v>69</v>
       </c>
-      <c r="D34" s="202"/>
-      <c r="E34" s="203"/>
+      <c r="D34" s="200"/>
+      <c r="E34" s="201"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" customHeight="1">
       <c r="A35" s="32"/>
       <c r="B35" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="201" t="s">
+      <c r="C35" s="199" t="s">
         <v>70</v>
       </c>
-      <c r="D35" s="202"/>
-      <c r="E35" s="203"/>
+      <c r="D35" s="200"/>
+      <c r="E35" s="201"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" customHeight="1">
       <c r="A36" s="32"/>
-      <c r="B36" s="211" t="s">
+      <c r="B36" s="209" t="s">
         <v>47</v>
       </c>
-      <c r="C36" s="212"/>
-      <c r="D36" s="212"/>
-      <c r="E36" s="213"/>
+      <c r="C36" s="210"/>
+      <c r="D36" s="210"/>
+      <c r="E36" s="211"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" customHeight="1">
       <c r="A37" s="32"/>
       <c r="B37" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="201" t="s">
+      <c r="C37" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="202"/>
-      <c r="E37" s="203"/>
+      <c r="D37" s="200"/>
+      <c r="E37" s="201"/>
     </row>
     <row r="38" spans="1:7" ht="16.5" customHeight="1">
       <c r="A38" s="32"/>
       <c r="B38" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="C38" s="201" t="s">
+      <c r="C38" s="199" t="s">
         <v>82</v>
       </c>
-      <c r="D38" s="202"/>
-      <c r="E38" s="203"/>
+      <c r="D38" s="200"/>
+      <c r="E38" s="201"/>
     </row>
     <row r="39" spans="1:7" ht="17.25" customHeight="1">
       <c r="A39" s="32"/>
       <c r="B39" s="41" t="s">
         <v>97</v>
       </c>
-      <c r="C39" s="201" t="s">
+      <c r="C39" s="199" t="s">
         <v>98</v>
       </c>
-      <c r="D39" s="202"/>
-      <c r="E39" s="203"/>
+      <c r="D39" s="200"/>
+      <c r="E39" s="201"/>
     </row>
     <row r="40" spans="1:7" ht="16.5" customHeight="1">
       <c r="A40" s="32"/>
       <c r="B40" s="41" t="s">
         <v>109</v>
       </c>
-      <c r="C40" s="201" t="s">
+      <c r="C40" s="199" t="s">
         <v>110</v>
       </c>
-      <c r="D40" s="202"/>
-      <c r="E40" s="203"/>
+      <c r="D40" s="200"/>
+      <c r="E40" s="201"/>
     </row>
     <row r="41" spans="1:7" ht="16.5" customHeight="1">
       <c r="A41" s="32"/>
       <c r="B41" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="C41" s="201" t="s">
+      <c r="C41" s="199" t="s">
         <v>100</v>
       </c>
-      <c r="D41" s="202"/>
-      <c r="E41" s="203"/>
+      <c r="D41" s="200"/>
+      <c r="E41" s="201"/>
     </row>
     <row r="42" spans="1:7" ht="16.5" customHeight="1">
       <c r="A42" s="32"/>
       <c r="B42" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="C42" s="201" t="s">
+      <c r="C42" s="199" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="202"/>
-      <c r="E42" s="203"/>
+      <c r="D42" s="200"/>
+      <c r="E42" s="201"/>
     </row>
     <row r="43" spans="1:7" ht="16.5" customHeight="1">
       <c r="A43" s="32"/>
       <c r="B43" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="C43" s="201" t="s">
+      <c r="C43" s="199" t="s">
         <v>74</v>
       </c>
-      <c r="D43" s="202"/>
-      <c r="E43" s="203"/>
+      <c r="D43" s="200"/>
+      <c r="E43" s="201"/>
     </row>
     <row r="44" spans="1:7" ht="16.5" customHeight="1">
       <c r="A44" s="32"/>
       <c r="B44" s="43" t="s">
         <v>54</v>
       </c>
-      <c r="C44" s="201" t="s">
+      <c r="C44" s="199" t="s">
         <v>75</v>
       </c>
-      <c r="D44" s="202"/>
-      <c r="E44" s="203"/>
+      <c r="D44" s="200"/>
+      <c r="E44" s="201"/>
     </row>
     <row r="45" spans="1:7" ht="16.5" customHeight="1">
       <c r="A45" s="32"/>
       <c r="B45" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="201" t="s">
+      <c r="C45" s="199" t="s">
         <v>72</v>
       </c>
-      <c r="D45" s="202"/>
-      <c r="E45" s="203"/>
+      <c r="D45" s="200"/>
+      <c r="E45" s="201"/>
     </row>
     <row r="46" spans="1:7" ht="16.5" customHeight="1">
       <c r="A46" s="32"/>
       <c r="B46" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="C46" s="201" t="s">
+      <c r="C46" s="199" t="s">
         <v>77</v>
       </c>
-      <c r="D46" s="202"/>
-      <c r="E46" s="203"/>
+      <c r="D46" s="200"/>
+      <c r="E46" s="201"/>
     </row>
     <row r="47" spans="1:7" ht="16.5" customHeight="1">
       <c r="A47" s="32"/>
       <c r="B47" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="C47" s="201" t="s">
+      <c r="C47" s="199" t="s">
         <v>78</v>
       </c>
-      <c r="D47" s="202"/>
-      <c r="E47" s="203"/>
+      <c r="D47" s="200"/>
+      <c r="E47" s="201"/>
     </row>
     <row r="48" spans="1:7" ht="16.5" customHeight="1">
       <c r="A48" s="32"/>
       <c r="B48" s="41" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="201" t="s">
+      <c r="C48" s="199" t="s">
         <v>76</v>
       </c>
-      <c r="D48" s="202"/>
-      <c r="E48" s="203"/>
+      <c r="D48" s="200"/>
+      <c r="E48" s="201"/>
     </row>
     <row r="49" spans="1:13" ht="16.5" customHeight="1">
       <c r="A49" s="32"/>
       <c r="B49" s="41" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="201" t="s">
+      <c r="C49" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="202"/>
-      <c r="E49" s="203"/>
+      <c r="D49" s="200"/>
+      <c r="E49" s="201"/>
     </row>
     <row r="50" spans="1:13" ht="16.5" customHeight="1">
       <c r="A50" s="52"/>
@@ -8342,23 +8331,23 @@
       <c r="M51" s="33"/>
     </row>
     <row r="52" spans="1:13" s="52" customFormat="1" ht="16.5" customHeight="1">
-      <c r="B52" s="214" t="s">
+      <c r="B52" s="212" t="s">
         <v>50</v>
       </c>
-      <c r="C52" s="215"/>
-      <c r="D52" s="215"/>
-      <c r="E52" s="216"/>
+      <c r="C52" s="213"/>
+      <c r="D52" s="213"/>
+      <c r="E52" s="214"/>
     </row>
     <row r="53" spans="1:13" ht="16.5" customHeight="1">
       <c r="A53" s="52"/>
       <c r="B53" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C53" s="217" t="s">
+      <c r="C53" s="215" t="s">
         <v>5</v>
       </c>
-      <c r="D53" s="218"/>
-      <c r="E53" s="219"/>
+      <c r="D53" s="216"/>
+      <c r="E53" s="217"/>
       <c r="F53" s="52"/>
       <c r="G53" s="52"/>
       <c r="H53" s="52"/>
@@ -8373,132 +8362,132 @@
       <c r="B54" s="41" t="s">
         <v>112</v>
       </c>
-      <c r="C54" s="201" t="s">
+      <c r="C54" s="199" t="s">
         <v>71</v>
       </c>
-      <c r="D54" s="202"/>
-      <c r="E54" s="203"/>
+      <c r="D54" s="200"/>
+      <c r="E54" s="201"/>
     </row>
     <row r="55" spans="1:13" ht="16.5" customHeight="1">
       <c r="A55" s="32"/>
       <c r="B55" s="41" t="s">
         <v>108</v>
       </c>
-      <c r="C55" s="201" t="s">
+      <c r="C55" s="199" t="s">
         <v>83</v>
       </c>
-      <c r="D55" s="202"/>
-      <c r="E55" s="203"/>
+      <c r="D55" s="200"/>
+      <c r="E55" s="201"/>
     </row>
     <row r="56" spans="1:13" ht="16.5" customHeight="1">
       <c r="A56" s="32"/>
       <c r="B56" s="41" t="s">
         <v>81</v>
       </c>
-      <c r="C56" s="201" t="s">
+      <c r="C56" s="199" t="s">
         <v>84</v>
       </c>
-      <c r="D56" s="202"/>
-      <c r="E56" s="203"/>
+      <c r="D56" s="200"/>
+      <c r="E56" s="201"/>
     </row>
     <row r="57" spans="1:13" ht="16.5" customHeight="1">
       <c r="A57" s="32"/>
       <c r="B57" s="41" t="s">
         <v>106</v>
       </c>
-      <c r="C57" s="201" t="s">
+      <c r="C57" s="199" t="s">
         <v>101</v>
       </c>
-      <c r="D57" s="208"/>
-      <c r="E57" s="209"/>
+      <c r="D57" s="206"/>
+      <c r="E57" s="207"/>
     </row>
     <row r="58" spans="1:13" ht="16.5" customHeight="1">
       <c r="A58" s="32"/>
       <c r="B58" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C58" s="201" t="s">
+      <c r="C58" s="199" t="s">
         <v>88</v>
       </c>
-      <c r="D58" s="208"/>
-      <c r="E58" s="209"/>
+      <c r="D58" s="206"/>
+      <c r="E58" s="207"/>
     </row>
     <row r="59" spans="1:13" ht="16.5" customHeight="1">
       <c r="A59" s="32"/>
       <c r="B59" s="41" t="s">
         <v>85</v>
       </c>
-      <c r="C59" s="201" t="s">
+      <c r="C59" s="199" t="s">
         <v>79</v>
       </c>
-      <c r="D59" s="208"/>
-      <c r="E59" s="209"/>
+      <c r="D59" s="206"/>
+      <c r="E59" s="207"/>
     </row>
     <row r="60" spans="1:13" ht="54" customHeight="1">
       <c r="A60" s="32"/>
       <c r="B60" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="C60" s="201" t="s">
-        <v>190</v>
-      </c>
-      <c r="D60" s="208"/>
-      <c r="E60" s="209"/>
+      <c r="C60" s="199" t="s">
+        <v>185</v>
+      </c>
+      <c r="D60" s="206"/>
+      <c r="E60" s="207"/>
     </row>
     <row r="61" spans="1:13" ht="16.5" customHeight="1">
       <c r="A61" s="32"/>
       <c r="B61" s="41" t="s">
         <v>51</v>
       </c>
-      <c r="C61" s="210" t="s">
+      <c r="C61" s="208" t="s">
         <v>87</v>
       </c>
-      <c r="D61" s="208"/>
-      <c r="E61" s="209"/>
+      <c r="D61" s="206"/>
+      <c r="E61" s="207"/>
     </row>
     <row r="62" spans="1:13" ht="30" customHeight="1">
       <c r="A62" s="32"/>
       <c r="B62" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="C62" s="201" t="s">
+      <c r="C62" s="199" t="s">
         <v>52</v>
       </c>
-      <c r="D62" s="208"/>
-      <c r="E62" s="209"/>
+      <c r="D62" s="206"/>
+      <c r="E62" s="207"/>
     </row>
     <row r="63" spans="1:13" ht="16.5" customHeight="1">
       <c r="A63" s="32"/>
       <c r="B63" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="C63" s="210" t="s">
+      <c r="C63" s="208" t="s">
         <v>57</v>
       </c>
-      <c r="D63" s="208"/>
-      <c r="E63" s="209"/>
+      <c r="D63" s="206"/>
+      <c r="E63" s="207"/>
     </row>
     <row r="64" spans="1:13" ht="16.5" customHeight="1">
       <c r="A64" s="32"/>
       <c r="B64" s="41" t="s">
         <v>28</v>
       </c>
-      <c r="C64" s="210" t="s">
+      <c r="C64" s="208" t="s">
         <v>80</v>
       </c>
-      <c r="D64" s="208"/>
-      <c r="E64" s="209"/>
+      <c r="D64" s="206"/>
+      <c r="E64" s="207"/>
     </row>
     <row r="65" spans="1:8" ht="16.5" customHeight="1">
       <c r="A65" s="32"/>
       <c r="B65" s="41" t="s">
         <v>94</v>
       </c>
-      <c r="C65" s="201" t="s">
+      <c r="C65" s="199" t="s">
         <v>73</v>
       </c>
-      <c r="D65" s="202"/>
-      <c r="E65" s="203"/>
+      <c r="D65" s="200"/>
+      <c r="E65" s="201"/>
     </row>
     <row r="66" spans="1:8" ht="16.5" customHeight="1">
       <c r="A66" s="32"/>
@@ -8509,200 +8498,200 @@
     </row>
     <row r="67" spans="1:8" ht="16.5" customHeight="1">
       <c r="A67" s="32"/>
-      <c r="B67" s="204"/>
-      <c r="C67" s="204"/>
-      <c r="D67" s="204"/>
-      <c r="E67" s="204"/>
+      <c r="B67" s="202"/>
+      <c r="C67" s="202"/>
+      <c r="D67" s="202"/>
+      <c r="E67" s="202"/>
       <c r="F67" s="51"/>
       <c r="G67" s="51"/>
       <c r="H67" s="51"/>
     </row>
     <row r="68" spans="1:8" ht="16.5" customHeight="1">
       <c r="A68" s="32"/>
-      <c r="B68" s="200"/>
-      <c r="C68" s="200"/>
-      <c r="D68" s="200"/>
-      <c r="E68" s="200"/>
+      <c r="B68" s="198"/>
+      <c r="C68" s="198"/>
+      <c r="D68" s="198"/>
+      <c r="E68" s="198"/>
       <c r="F68" s="51"/>
       <c r="G68" s="51"/>
       <c r="H68" s="51"/>
     </row>
     <row r="69" spans="1:8" ht="16.5" customHeight="1">
       <c r="A69" s="32"/>
-      <c r="B69" s="200"/>
-      <c r="C69" s="200"/>
-      <c r="D69" s="200"/>
-      <c r="E69" s="200"/>
+      <c r="B69" s="198"/>
+      <c r="C69" s="198"/>
+      <c r="D69" s="198"/>
+      <c r="E69" s="198"/>
       <c r="F69" s="51"/>
       <c r="G69" s="51"/>
       <c r="H69" s="51"/>
     </row>
     <row r="70" spans="1:8" ht="16.5" customHeight="1">
       <c r="A70" s="32"/>
-      <c r="B70" s="200"/>
-      <c r="C70" s="200"/>
-      <c r="D70" s="200"/>
-      <c r="E70" s="200"/>
+      <c r="B70" s="198"/>
+      <c r="C70" s="198"/>
+      <c r="D70" s="198"/>
+      <c r="E70" s="198"/>
       <c r="F70" s="51"/>
       <c r="G70" s="51"/>
       <c r="H70" s="51"/>
     </row>
     <row r="71" spans="1:8" ht="16.5" customHeight="1">
       <c r="A71" s="32"/>
-      <c r="B71" s="200"/>
-      <c r="C71" s="200"/>
-      <c r="D71" s="200"/>
-      <c r="E71" s="200"/>
+      <c r="B71" s="198"/>
+      <c r="C71" s="198"/>
+      <c r="D71" s="198"/>
+      <c r="E71" s="198"/>
       <c r="F71" s="51"/>
       <c r="G71" s="51"/>
       <c r="H71" s="51"/>
     </row>
     <row r="72" spans="1:8" ht="16.5" customHeight="1">
       <c r="A72" s="32"/>
-      <c r="B72" s="200"/>
-      <c r="C72" s="200"/>
-      <c r="D72" s="200"/>
-      <c r="E72" s="200"/>
+      <c r="B72" s="198"/>
+      <c r="C72" s="198"/>
+      <c r="D72" s="198"/>
+      <c r="E72" s="198"/>
       <c r="F72" s="51"/>
       <c r="G72" s="51"/>
       <c r="H72" s="51"/>
     </row>
     <row r="73" spans="1:8" ht="16.5" customHeight="1">
       <c r="A73" s="37"/>
-      <c r="B73" s="200"/>
-      <c r="C73" s="200"/>
-      <c r="D73" s="200"/>
-      <c r="E73" s="200"/>
+      <c r="B73" s="198"/>
+      <c r="C73" s="198"/>
+      <c r="D73" s="198"/>
+      <c r="E73" s="198"/>
       <c r="F73" s="51"/>
       <c r="G73" s="51"/>
       <c r="H73" s="51"/>
     </row>
     <row r="74" spans="1:8" ht="16.5" customHeight="1">
       <c r="A74" s="32"/>
-      <c r="B74" s="200"/>
-      <c r="C74" s="200"/>
-      <c r="D74" s="200"/>
-      <c r="E74" s="200"/>
+      <c r="B74" s="198"/>
+      <c r="C74" s="198"/>
+      <c r="D74" s="198"/>
+      <c r="E74" s="198"/>
       <c r="F74" s="51"/>
       <c r="G74" s="51"/>
       <c r="H74" s="51"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" customHeight="1">
       <c r="A75" s="32"/>
-      <c r="B75" s="200"/>
-      <c r="C75" s="200"/>
-      <c r="D75" s="200"/>
-      <c r="E75" s="200"/>
+      <c r="B75" s="198"/>
+      <c r="C75" s="198"/>
+      <c r="D75" s="198"/>
+      <c r="E75" s="198"/>
       <c r="F75" s="51"/>
       <c r="G75" s="51"/>
       <c r="H75" s="51"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" customHeight="1">
       <c r="A76" s="32"/>
-      <c r="B76" s="200"/>
-      <c r="C76" s="200"/>
-      <c r="D76" s="200"/>
-      <c r="E76" s="200"/>
+      <c r="B76" s="198"/>
+      <c r="C76" s="198"/>
+      <c r="D76" s="198"/>
+      <c r="E76" s="198"/>
       <c r="F76" s="51"/>
       <c r="G76" s="51"/>
       <c r="H76" s="51"/>
     </row>
     <row r="77" spans="1:8" ht="16.5" customHeight="1">
       <c r="A77" s="32"/>
-      <c r="B77" s="200"/>
-      <c r="C77" s="200"/>
-      <c r="D77" s="200"/>
-      <c r="E77" s="200"/>
+      <c r="B77" s="198"/>
+      <c r="C77" s="198"/>
+      <c r="D77" s="198"/>
+      <c r="E77" s="198"/>
       <c r="F77" s="51"/>
       <c r="G77" s="51"/>
       <c r="H77" s="51"/>
     </row>
     <row r="78" spans="1:8" ht="16.5" customHeight="1">
       <c r="A78" s="32"/>
-      <c r="B78" s="200"/>
-      <c r="C78" s="200"/>
-      <c r="D78" s="200"/>
-      <c r="E78" s="200"/>
+      <c r="B78" s="198"/>
+      <c r="C78" s="198"/>
+      <c r="D78" s="198"/>
+      <c r="E78" s="198"/>
       <c r="F78" s="51"/>
       <c r="G78" s="51"/>
       <c r="H78" s="51"/>
     </row>
     <row r="79" spans="1:8" ht="16.5" customHeight="1">
       <c r="A79" s="37"/>
-      <c r="B79" s="200"/>
-      <c r="C79" s="200"/>
-      <c r="D79" s="200"/>
-      <c r="E79" s="200"/>
+      <c r="B79" s="198"/>
+      <c r="C79" s="198"/>
+      <c r="D79" s="198"/>
+      <c r="E79" s="198"/>
       <c r="F79" s="51"/>
       <c r="G79" s="51"/>
       <c r="H79" s="51"/>
     </row>
     <row r="80" spans="1:8" ht="16.5" customHeight="1">
       <c r="A80" s="37"/>
-      <c r="B80" s="200"/>
-      <c r="C80" s="200"/>
-      <c r="D80" s="200"/>
-      <c r="E80" s="200"/>
+      <c r="B80" s="198"/>
+      <c r="C80" s="198"/>
+      <c r="D80" s="198"/>
+      <c r="E80" s="198"/>
       <c r="F80" s="51"/>
       <c r="G80" s="51"/>
       <c r="H80" s="51"/>
     </row>
     <row r="81" spans="1:8" ht="16.5" customHeight="1">
       <c r="A81" s="37"/>
-      <c r="B81" s="200"/>
-      <c r="C81" s="200"/>
-      <c r="D81" s="200"/>
-      <c r="E81" s="200"/>
+      <c r="B81" s="198"/>
+      <c r="C81" s="198"/>
+      <c r="D81" s="198"/>
+      <c r="E81" s="198"/>
       <c r="F81" s="51"/>
       <c r="G81" s="51"/>
       <c r="H81" s="51"/>
     </row>
     <row r="82" spans="1:8" ht="16.5" customHeight="1">
       <c r="A82" s="37"/>
-      <c r="B82" s="200"/>
-      <c r="C82" s="200"/>
-      <c r="D82" s="200"/>
-      <c r="E82" s="200"/>
+      <c r="B82" s="198"/>
+      <c r="C82" s="198"/>
+      <c r="D82" s="198"/>
+      <c r="E82" s="198"/>
       <c r="F82" s="51"/>
       <c r="G82" s="51"/>
       <c r="H82" s="51"/>
     </row>
     <row r="83" spans="1:8" ht="16.5" customHeight="1">
       <c r="A83" s="37"/>
-      <c r="B83" s="200"/>
-      <c r="C83" s="200"/>
-      <c r="D83" s="200"/>
-      <c r="E83" s="200"/>
+      <c r="B83" s="198"/>
+      <c r="C83" s="198"/>
+      <c r="D83" s="198"/>
+      <c r="E83" s="198"/>
       <c r="F83" s="51"/>
       <c r="G83" s="51"/>
       <c r="H83" s="51"/>
     </row>
     <row r="84" spans="1:8" ht="16.5" customHeight="1">
       <c r="A84" s="37"/>
-      <c r="B84" s="200"/>
-      <c r="C84" s="200"/>
-      <c r="D84" s="200"/>
-      <c r="E84" s="200"/>
+      <c r="B84" s="198"/>
+      <c r="C84" s="198"/>
+      <c r="D84" s="198"/>
+      <c r="E84" s="198"/>
       <c r="F84" s="51"/>
       <c r="G84" s="51"/>
       <c r="H84" s="51"/>
     </row>
     <row r="85" spans="1:8" ht="16.5" customHeight="1">
       <c r="A85" s="37"/>
-      <c r="B85" s="200"/>
-      <c r="C85" s="200"/>
-      <c r="D85" s="200"/>
-      <c r="E85" s="200"/>
+      <c r="B85" s="198"/>
+      <c r="C85" s="198"/>
+      <c r="D85" s="198"/>
+      <c r="E85" s="198"/>
       <c r="F85" s="51"/>
       <c r="G85" s="51"/>
       <c r="H85" s="51"/>
     </row>
     <row r="86" spans="1:8" ht="16.5" customHeight="1">
       <c r="A86" s="37"/>
-      <c r="B86" s="200"/>
-      <c r="C86" s="200"/>
-      <c r="D86" s="200"/>
-      <c r="E86" s="200"/>
+      <c r="B86" s="198"/>
+      <c r="C86" s="198"/>
+      <c r="D86" s="198"/>
+      <c r="E86" s="198"/>
       <c r="F86" s="51"/>
       <c r="G86" s="51"/>
       <c r="H86" s="51"/>
@@ -8803,7 +8792,7 @@
   <dimension ref="A3:Z28"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="E13" sqref="E13:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
@@ -8825,22 +8814,22 @@
   </cols>
   <sheetData>
     <row r="3" spans="2:26" ht="18" customHeight="1">
-      <c r="B3" s="232" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" s="232"/>
-      <c r="D3" s="232"/>
-      <c r="E3" s="232"/>
-      <c r="F3" s="232"/>
-      <c r="G3" s="232"/>
-      <c r="H3" s="232"/>
-      <c r="I3" s="232"/>
-      <c r="J3" s="232"/>
-      <c r="K3" s="232"/>
-      <c r="L3" s="232"/>
-      <c r="M3" s="232"/>
-      <c r="N3" s="232"/>
-      <c r="O3" s="232"/>
+      <c r="B3" s="230" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="230"/>
+      <c r="D3" s="230"/>
+      <c r="E3" s="230"/>
+      <c r="F3" s="230"/>
+      <c r="G3" s="230"/>
+      <c r="H3" s="230"/>
+      <c r="I3" s="230"/>
+      <c r="J3" s="230"/>
+      <c r="K3" s="230"/>
+      <c r="L3" s="230"/>
+      <c r="M3" s="230"/>
+      <c r="N3" s="230"/>
+      <c r="O3" s="230"/>
     </row>
     <row r="4" spans="2:26" ht="11.25" customHeight="1">
       <c r="B4" s="4"/>
@@ -8848,76 +8837,76 @@
     </row>
     <row r="5" spans="2:26" ht="15" customHeight="1"/>
     <row r="6" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B6" s="234" t="s">
+      <c r="B6" s="232" t="s">
         <v>128</v>
       </c>
-      <c r="C6" s="235"/>
-      <c r="D6" s="236"/>
-      <c r="E6" s="237" t="s">
-        <v>196</v>
-      </c>
-      <c r="F6" s="238"/>
-      <c r="G6" s="239"/>
-      <c r="H6" s="233"/>
-      <c r="I6" s="233"/>
+      <c r="C6" s="233"/>
+      <c r="D6" s="234"/>
+      <c r="E6" s="235" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="236"/>
+      <c r="G6" s="237"/>
+      <c r="H6" s="231"/>
+      <c r="I6" s="231"/>
       <c r="O6" s="143"/>
       <c r="Z6" s="3"/>
     </row>
     <row r="7" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B7" s="234" t="s">
+      <c r="B7" s="232" t="s">
         <v>130</v>
       </c>
-      <c r="C7" s="235"/>
-      <c r="D7" s="236"/>
-      <c r="E7" s="237" t="s">
-        <v>197</v>
-      </c>
-      <c r="F7" s="238"/>
-      <c r="G7" s="239"/>
-      <c r="J7" s="240" t="s">
-        <v>147</v>
-      </c>
-      <c r="K7" s="240"/>
-      <c r="L7" s="240"/>
-      <c r="M7" s="240"/>
-      <c r="N7" s="240"/>
-      <c r="O7" s="164">
+      <c r="C7" s="233"/>
+      <c r="D7" s="234"/>
+      <c r="E7" s="235" t="s">
+        <v>192</v>
+      </c>
+      <c r="F7" s="236"/>
+      <c r="G7" s="237"/>
+      <c r="J7" s="238" t="s">
+        <v>144</v>
+      </c>
+      <c r="K7" s="238"/>
+      <c r="L7" s="238"/>
+      <c r="M7" s="238"/>
+      <c r="N7" s="238"/>
+      <c r="O7" s="163">
         <f>SUM(K13:K23)</f>
         <v>88</v>
       </c>
       <c r="Z7" s="3"/>
     </row>
     <row r="8" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B8" s="234" t="s">
+      <c r="B8" s="232" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="235"/>
-      <c r="D8" s="236"/>
-      <c r="E8" s="237" t="str">
+      <c r="C8" s="233"/>
+      <c r="D8" s="234"/>
+      <c r="E8" s="235" t="str">
         <f>CONCATENATE(E6," , ",E7)</f>
         <v>Benji Santillan Torres , Carluis Oyola Laynes</v>
       </c>
-      <c r="F8" s="238"/>
-      <c r="G8" s="239"/>
-      <c r="J8" s="240" t="s">
-        <v>148</v>
-      </c>
-      <c r="K8" s="240"/>
-      <c r="L8" s="240"/>
-      <c r="M8" s="240"/>
-      <c r="N8" s="240"/>
-      <c r="O8" s="164">
+      <c r="F8" s="236"/>
+      <c r="G8" s="237"/>
+      <c r="J8" s="238" t="s">
+        <v>145</v>
+      </c>
+      <c r="K8" s="238"/>
+      <c r="L8" s="238"/>
+      <c r="M8" s="238"/>
+      <c r="N8" s="238"/>
+      <c r="O8" s="163">
         <f>SUM(N13:N23)</f>
         <v>70</v>
       </c>
       <c r="Z8" s="3"/>
     </row>
     <row r="9" spans="2:26" s="5" customFormat="1" ht="27.75" customHeight="1">
-      <c r="B9" s="234" t="s">
+      <c r="B9" s="232" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="235"/>
-      <c r="D9" s="236"/>
+      <c r="C9" s="233"/>
+      <c r="D9" s="234"/>
       <c r="E9" s="127">
         <v>42506</v>
       </c>
@@ -8932,16 +8921,16 @@
       <c r="Z9" s="3"/>
     </row>
     <row r="10" spans="2:26" s="5" customFormat="1" ht="15" customHeight="1">
-      <c r="B10" s="234" t="s">
+      <c r="B10" s="232" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="235"/>
-      <c r="D10" s="236"/>
-      <c r="E10" s="241" t="s">
-        <v>198</v>
-      </c>
-      <c r="F10" s="242"/>
-      <c r="G10" s="243"/>
+      <c r="C10" s="233"/>
+      <c r="D10" s="234"/>
+      <c r="E10" s="239" t="s">
+        <v>193</v>
+      </c>
+      <c r="F10" s="240"/>
+      <c r="G10" s="241"/>
       <c r="Z10" s="3"/>
     </row>
     <row r="11" spans="2:26" s="17" customFormat="1" ht="15" customHeight="1">
@@ -8954,7 +8943,7 @@
     </row>
     <row r="12" spans="2:26" s="122" customFormat="1" ht="38.25">
       <c r="B12" s="119" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C12" s="119" t="s">
         <v>30</v>
@@ -9000,37 +8989,37 @@
       <c r="B13" s="83">
         <v>1</v>
       </c>
-      <c r="C13" s="167">
+      <c r="C13" s="166">
         <v>1</v>
       </c>
-      <c r="D13" s="158" t="s">
+      <c r="D13" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="E13" s="159" t="s">
+      <c r="E13" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="F13" s="160" t="s">
-        <v>185</v>
-      </c>
-      <c r="G13" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H13" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I13" s="188">
+      <c r="F13" s="159" t="s">
+        <v>212</v>
+      </c>
+      <c r="G13" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H13" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I13" s="186">
         <v>42506</v>
       </c>
-      <c r="J13" s="189">
+      <c r="J13" s="187">
         <v>42522</v>
       </c>
       <c r="K13" s="125">
         <v>8</v>
       </c>
-      <c r="L13" s="188">
+      <c r="L13" s="186">
         <v>42506</v>
       </c>
-      <c r="M13" s="189">
+      <c r="M13" s="187">
         <v>42522</v>
       </c>
       <c r="N13" s="125">
@@ -9043,37 +9032,37 @@
         <f>B13+1</f>
         <v>2</v>
       </c>
-      <c r="C14" s="167">
+      <c r="C14" s="166">
         <v>1</v>
       </c>
-      <c r="D14" s="158" t="s">
+      <c r="D14" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="E14" s="159" t="s">
+      <c r="E14" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="F14" s="160" t="s">
-        <v>133</v>
-      </c>
-      <c r="G14" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H14" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I14" s="188">
+      <c r="F14" s="159" t="s">
+        <v>213</v>
+      </c>
+      <c r="G14" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H14" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I14" s="186">
         <v>42506</v>
       </c>
-      <c r="J14" s="189">
+      <c r="J14" s="187">
         <v>42522</v>
       </c>
       <c r="K14" s="125">
         <v>8</v>
       </c>
-      <c r="L14" s="188">
+      <c r="L14" s="186">
         <v>42506</v>
       </c>
-      <c r="M14" s="189">
+      <c r="M14" s="187">
         <v>42522</v>
       </c>
       <c r="N14" s="125">
@@ -9086,37 +9075,37 @@
         <f t="shared" ref="B15:B23" si="0">B14+1</f>
         <v>3</v>
       </c>
-      <c r="C15" s="167">
+      <c r="C15" s="166">
         <v>1</v>
       </c>
-      <c r="D15" s="158" t="s">
+      <c r="D15" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="E15" s="159" t="s">
+      <c r="E15" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="F15" s="161" t="s">
+      <c r="F15" s="160" t="s">
+        <v>181</v>
+      </c>
+      <c r="G15" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H15" s="162" t="s">
         <v>186</v>
       </c>
-      <c r="G15" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H15" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I15" s="188">
+      <c r="I15" s="186">
         <v>42506</v>
       </c>
-      <c r="J15" s="189">
+      <c r="J15" s="187">
         <v>42522</v>
       </c>
       <c r="K15" s="125">
         <v>8</v>
       </c>
-      <c r="L15" s="188">
+      <c r="L15" s="186">
         <v>42506</v>
       </c>
-      <c r="M15" s="189">
+      <c r="M15" s="187">
         <v>42522</v>
       </c>
       <c r="N15" s="125">
@@ -9129,37 +9118,37 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C16" s="167">
+      <c r="C16" s="166">
         <v>1</v>
       </c>
-      <c r="D16" s="158" t="s">
+      <c r="D16" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="E16" s="159" t="s">
+      <c r="E16" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="F16" s="160" t="s">
-        <v>137</v>
-      </c>
-      <c r="G16" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H16" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I16" s="188">
+      <c r="F16" s="159" t="s">
+        <v>211</v>
+      </c>
+      <c r="G16" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H16" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I16" s="186">
         <v>42506</v>
       </c>
-      <c r="J16" s="189">
+      <c r="J16" s="187">
         <v>42522</v>
       </c>
       <c r="K16" s="125">
         <v>8</v>
       </c>
-      <c r="L16" s="188">
+      <c r="L16" s="186">
         <v>42506</v>
       </c>
-      <c r="M16" s="189">
+      <c r="M16" s="187">
         <v>42522</v>
       </c>
       <c r="N16" s="125">
@@ -9172,37 +9161,37 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C17" s="167">
+      <c r="C17" s="166">
         <v>1</v>
       </c>
-      <c r="D17" s="158" t="s">
+      <c r="D17" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="E17" s="159" t="s">
+      <c r="E17" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="F17" s="160" t="s">
-        <v>134</v>
-      </c>
-      <c r="G17" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H17" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I17" s="188">
+      <c r="F17" s="159" t="s">
+        <v>214</v>
+      </c>
+      <c r="G17" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H17" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I17" s="186">
         <v>42506</v>
       </c>
-      <c r="J17" s="189">
+      <c r="J17" s="187">
         <v>42522</v>
       </c>
       <c r="K17" s="125">
         <v>8</v>
       </c>
-      <c r="L17" s="188">
+      <c r="L17" s="186">
         <v>42506</v>
       </c>
-      <c r="M17" s="189">
+      <c r="M17" s="187">
         <v>42522</v>
       </c>
       <c r="N17" s="125">
@@ -9215,37 +9204,37 @@
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C18" s="167">
+      <c r="C18" s="166">
         <v>1</v>
       </c>
-      <c r="D18" s="158" t="s">
+      <c r="D18" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="E18" s="159" t="s">
+      <c r="E18" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="F18" s="160" t="s">
-        <v>151</v>
-      </c>
-      <c r="G18" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H18" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I18" s="188">
+      <c r="F18" s="159" t="s">
+        <v>147</v>
+      </c>
+      <c r="G18" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H18" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I18" s="186">
         <v>42506</v>
       </c>
-      <c r="J18" s="189">
+      <c r="J18" s="187">
         <v>42522</v>
       </c>
       <c r="K18" s="125">
         <v>8</v>
       </c>
-      <c r="L18" s="188">
+      <c r="L18" s="186">
         <v>42506</v>
       </c>
-      <c r="M18" s="189">
+      <c r="M18" s="187">
         <v>42522</v>
       </c>
       <c r="N18" s="125">
@@ -9258,37 +9247,37 @@
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C19" s="167">
+      <c r="C19" s="166">
         <v>1</v>
       </c>
-      <c r="D19" s="158" t="s">
+      <c r="D19" s="157" t="s">
         <v>117</v>
       </c>
-      <c r="E19" s="159" t="s">
+      <c r="E19" s="158" t="s">
         <v>124</v>
       </c>
-      <c r="F19" s="160" t="s">
-        <v>152</v>
-      </c>
-      <c r="G19" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H19" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I19" s="188">
+      <c r="F19" s="159" t="s">
+        <v>148</v>
+      </c>
+      <c r="G19" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H19" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I19" s="186">
         <v>42506</v>
       </c>
-      <c r="J19" s="189">
+      <c r="J19" s="187">
         <v>42522</v>
       </c>
       <c r="K19" s="125">
         <v>8</v>
       </c>
-      <c r="L19" s="188">
+      <c r="L19" s="186">
         <v>42506</v>
       </c>
-      <c r="M19" s="189">
+      <c r="M19" s="187">
         <v>42522</v>
       </c>
       <c r="N19" s="125">
@@ -9302,37 +9291,37 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C20" s="167">
+      <c r="C20" s="166">
         <v>1</v>
       </c>
-      <c r="D20" s="162" t="s">
+      <c r="D20" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="E20" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="F20" s="160" t="s">
-        <v>187</v>
-      </c>
-      <c r="G20" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H20" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I20" s="188">
+      <c r="E20" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="F20" s="159" t="s">
+        <v>182</v>
+      </c>
+      <c r="G20" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H20" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I20" s="186">
         <v>42506</v>
       </c>
-      <c r="J20" s="189">
+      <c r="J20" s="187">
         <v>42522</v>
       </c>
       <c r="K20" s="125">
         <v>8</v>
       </c>
-      <c r="L20" s="188">
+      <c r="L20" s="186">
         <v>42506</v>
       </c>
-      <c r="M20" s="189">
+      <c r="M20" s="187">
         <v>42522</v>
       </c>
       <c r="N20" s="125">
@@ -9346,37 +9335,37 @@
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C21" s="167">
+      <c r="C21" s="166">
         <v>1</v>
       </c>
-      <c r="D21" s="162" t="s">
+      <c r="D21" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="E21" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="F21" s="160" t="s">
+      <c r="E21" s="158" t="s">
         <v>159</v>
       </c>
-      <c r="G21" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H21" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I21" s="188">
+      <c r="F21" s="159" t="s">
+        <v>155</v>
+      </c>
+      <c r="G21" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H21" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I21" s="186">
         <v>42506</v>
       </c>
-      <c r="J21" s="189">
+      <c r="J21" s="187">
         <v>42522</v>
       </c>
       <c r="K21" s="125">
         <v>8</v>
       </c>
-      <c r="L21" s="188">
+      <c r="L21" s="186">
         <v>42506</v>
       </c>
-      <c r="M21" s="189">
+      <c r="M21" s="187">
         <v>42522</v>
       </c>
       <c r="N21" s="125">
@@ -9390,37 +9379,37 @@
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C22" s="167">
+      <c r="C22" s="166">
         <v>1</v>
       </c>
-      <c r="D22" s="162" t="s">
+      <c r="D22" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="E22" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="F22" s="160" t="s">
+      <c r="E22" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="F22" s="159" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="162" t="s">
         <v>188</v>
       </c>
-      <c r="G22" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H22" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I22" s="188">
+      <c r="H22" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I22" s="186">
         <v>42506</v>
       </c>
-      <c r="J22" s="189">
+      <c r="J22" s="187">
         <v>42522</v>
       </c>
       <c r="K22" s="125">
         <v>8</v>
       </c>
-      <c r="L22" s="188">
+      <c r="L22" s="186">
         <v>42506</v>
       </c>
-      <c r="M22" s="189">
+      <c r="M22" s="187">
         <v>42522</v>
       </c>
       <c r="N22" s="125">
@@ -9434,37 +9423,37 @@
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C23" s="167">
+      <c r="C23" s="166">
         <v>1</v>
       </c>
-      <c r="D23" s="162" t="s">
+      <c r="D23" s="161" t="s">
         <v>117</v>
       </c>
-      <c r="E23" s="159" t="s">
-        <v>163</v>
-      </c>
-      <c r="F23" s="160" t="s">
-        <v>189</v>
-      </c>
-      <c r="G23" s="163" t="s">
-        <v>193</v>
-      </c>
-      <c r="H23" s="163" t="s">
-        <v>191</v>
-      </c>
-      <c r="I23" s="188">
+      <c r="E23" s="158" t="s">
+        <v>159</v>
+      </c>
+      <c r="F23" s="159" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="162" t="s">
+        <v>188</v>
+      </c>
+      <c r="H23" s="162" t="s">
+        <v>186</v>
+      </c>
+      <c r="I23" s="186">
         <v>42506</v>
       </c>
-      <c r="J23" s="189">
+      <c r="J23" s="187">
         <v>42522</v>
       </c>
       <c r="K23" s="125">
         <v>8</v>
       </c>
-      <c r="L23" s="188">
+      <c r="L23" s="186">
         <v>42506</v>
       </c>
-      <c r="M23" s="189">
+      <c r="M23" s="187">
         <v>42522</v>
       </c>
       <c r="N23" s="125">
@@ -9563,7 +9552,7 @@
       <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="G10" sqref="G10:G11"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5:D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="11.25"/>
@@ -9584,22 +9573,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="25" customFormat="1" ht="64.5" customHeight="1" thickBot="1">
-      <c r="A1" s="244" t="s">
-        <v>181</v>
-      </c>
-      <c r="B1" s="245"/>
-      <c r="C1" s="245"/>
-      <c r="D1" s="245"/>
-      <c r="E1" s="245"/>
-      <c r="F1" s="245"/>
-      <c r="G1" s="245"/>
-      <c r="H1" s="245"/>
-      <c r="I1" s="245"/>
-      <c r="J1" s="245"/>
-      <c r="K1" s="245"/>
-      <c r="L1" s="245"/>
-      <c r="M1" s="245"/>
-      <c r="N1" s="246"/>
+      <c r="A1" s="242" t="s">
+        <v>177</v>
+      </c>
+      <c r="B1" s="243"/>
+      <c r="C1" s="243"/>
+      <c r="D1" s="243"/>
+      <c r="E1" s="243"/>
+      <c r="F1" s="243"/>
+      <c r="G1" s="243"/>
+      <c r="H1" s="243"/>
+      <c r="I1" s="243"/>
+      <c r="J1" s="243"/>
+      <c r="K1" s="243"/>
+      <c r="L1" s="243"/>
+      <c r="M1" s="243"/>
+      <c r="N1" s="244"/>
     </row>
     <row r="2" spans="1:15" s="25" customFormat="1" ht="11.45" customHeight="1">
       <c r="A2" s="26"/>
@@ -9623,66 +9612,66 @@
       <c r="M3" s="28"/>
     </row>
     <row r="4" spans="1:15" s="24" customFormat="1" ht="60" customHeight="1">
-      <c r="A4" s="171" t="s">
+      <c r="A4" s="170" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="172" t="s">
+      <c r="B4" s="171" t="s">
         <v>86</v>
       </c>
-      <c r="C4" s="173" t="s">
+      <c r="C4" s="172" t="s">
         <v>108</v>
       </c>
-      <c r="D4" s="173" t="s">
+      <c r="D4" s="172" t="s">
         <v>120</v>
       </c>
-      <c r="E4" s="172" t="s">
+      <c r="E4" s="171" t="s">
         <v>105</v>
       </c>
-      <c r="F4" s="172" t="s">
+      <c r="F4" s="171" t="s">
         <v>22</v>
       </c>
-      <c r="G4" s="172" t="s">
+      <c r="G4" s="171" t="s">
         <v>25</v>
       </c>
-      <c r="H4" s="173" t="s">
+      <c r="H4" s="172" t="s">
         <v>33</v>
       </c>
-      <c r="I4" s="172" t="s">
+      <c r="I4" s="171" t="s">
         <v>31</v>
       </c>
-      <c r="J4" s="172" t="s">
+      <c r="J4" s="171" t="s">
         <v>119</v>
       </c>
-      <c r="K4" s="172" t="s">
+      <c r="K4" s="171" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="172" t="s">
+      <c r="L4" s="171" t="s">
         <v>26</v>
       </c>
-      <c r="M4" s="172" t="s">
+      <c r="M4" s="171" t="s">
         <v>27</v>
       </c>
-      <c r="N4" s="172" t="s">
+      <c r="N4" s="171" t="s">
         <v>28</v>
       </c>
-      <c r="O4" s="174" t="s">
+      <c r="O4" s="173" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
-      <c r="A5" s="175">
+      <c r="A5" s="174">
         <v>1</v>
       </c>
-      <c r="B5" s="168">
+      <c r="B5" s="167">
         <v>1</v>
       </c>
       <c r="C5" s="112" t="str">
         <f>VLOOKUP(A5,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D5" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>PGPROY / Desarrollo de Sistemas</v>
+      <c r="D5" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A5,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A5,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>PPGPROY / PP_PMC</v>
       </c>
       <c r="E5" s="112" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:H$23,6,FALSE)</f>
@@ -9693,49 +9682,49 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G5" s="113" t="s">
-        <v>202</v>
-      </c>
-      <c r="H5" s="154" t="s">
+        <v>197</v>
+      </c>
+      <c r="H5" s="153" t="s">
         <v>122</v>
       </c>
-      <c r="I5" s="154" t="s">
+      <c r="I5" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="J5" s="154" t="str">
+      <c r="J5" s="153" t="str">
         <f>VLOOKUP(A5,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K5" s="157"/>
-      <c r="L5" s="170">
+      <c r="K5" s="156"/>
+      <c r="L5" s="169">
         <f>VLOOKUP(A5,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M5" s="170">
+      <c r="M5" s="169">
         <f>VLOOKUP(A5,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N5" s="186">
+      <c r="N5" s="184">
         <v>1</v>
       </c>
-      <c r="O5" s="176" t="s">
-        <v>203</v>
+      <c r="O5" s="175" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
-      <c r="A6" s="175">
+      <c r="A6" s="174">
         <f>A5+1</f>
         <v>2</v>
       </c>
-      <c r="B6" s="168">
+      <c r="B6" s="167">
         <v>1</v>
       </c>
       <c r="C6" s="112" t="str">
         <f>VLOOKUP(A6,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D6" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>PPROY / Desarrollo de Sistemas</v>
+      <c r="D6" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A6,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A6,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>PPROY / PP_PMC</v>
       </c>
       <c r="E6" s="112" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:H$23,6,FALSE)</f>
@@ -9745,37 +9734,37 @@
         <f>VLOOKUP(A6,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="G6" s="177" t="s">
-        <v>177</v>
-      </c>
-      <c r="H6" s="154" t="s">
+      <c r="G6" s="176" t="s">
+        <v>173</v>
+      </c>
+      <c r="H6" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I6" s="154" t="s">
+      <c r="I6" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="J6" s="154" t="str">
+      <c r="J6" s="153" t="str">
         <f>VLOOKUP(A6,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K6" s="157"/>
-      <c r="L6" s="170">
+      <c r="K6" s="156"/>
+      <c r="L6" s="169">
         <f>VLOOKUP(A6,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M6" s="170">
+      <c r="M6" s="169">
         <f>VLOOKUP(A6,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N6" s="186">
+      <c r="N6" s="184">
         <v>1</v>
       </c>
-      <c r="O6" s="176" t="s">
-        <v>204</v>
+      <c r="O6" s="175" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="7" spans="1:15" ht="42" customHeight="1">
-      <c r="A7" s="175">
+      <c r="A7" s="174">
         <f t="shared" ref="A7:A15" si="0">A6+1</f>
         <v>3</v>
       </c>
@@ -9786,9 +9775,9 @@
         <f>VLOOKUP(A7,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D7" s="152" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>ACREVPRO / Desarrollo de Sistemas</v>
+      <c r="D7" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A7,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A7,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A7,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>ACREVPRO / PP_PMC</v>
       </c>
       <c r="E7" s="95" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:H$23,6,FALSE)</f>
@@ -9799,49 +9788,49 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G7" s="96" t="s">
-        <v>177</v>
-      </c>
-      <c r="H7" s="153" t="s">
+        <v>173</v>
+      </c>
+      <c r="H7" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="I7" s="153" t="s">
+      <c r="I7" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="J7" s="153" t="str">
+      <c r="J7" s="152" t="str">
         <f>VLOOKUP(A7,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K7" s="155"/>
-      <c r="L7" s="156">
+      <c r="K7" s="154"/>
+      <c r="L7" s="155">
         <f>VLOOKUP(A7,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M7" s="156">
+      <c r="M7" s="155">
         <f>VLOOKUP(A7,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N7" s="186">
+      <c r="N7" s="184">
         <v>1</v>
       </c>
-      <c r="O7" s="176" t="s">
-        <v>205</v>
+      <c r="O7" s="175" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
-      <c r="A8" s="175">
+      <c r="A8" s="174">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="B8" s="168">
+      <c r="B8" s="167">
         <v>1</v>
       </c>
       <c r="C8" s="112" t="str">
         <f>VLOOKUP(A8,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D8" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>CPROY / Desarrollo de Sistemas</v>
+      <c r="D8" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A8,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A8,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>CPROY / PP_PMC</v>
       </c>
       <c r="E8" s="112" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:H$23,6,FALSE)</f>
@@ -9852,36 +9841,36 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G8" s="113" t="s">
-        <v>214</v>
-      </c>
-      <c r="H8" s="154" t="s">
+        <v>209</v>
+      </c>
+      <c r="H8" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I8" s="154" t="s">
+      <c r="I8" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="J8" s="154" t="str">
+      <c r="J8" s="153" t="str">
         <f>VLOOKUP(A8,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K8" s="157"/>
-      <c r="L8" s="170">
+      <c r="K8" s="156"/>
+      <c r="L8" s="169">
         <f>VLOOKUP(A8,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M8" s="170">
+      <c r="M8" s="169">
         <f>VLOOKUP(A8,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N8" s="186">
+      <c r="N8" s="184">
         <v>1</v>
       </c>
-      <c r="O8" s="176" t="s">
-        <v>206</v>
+      <c r="O8" s="175" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:15" ht="42" customHeight="1">
-      <c r="A9" s="175">
+      <c r="A9" s="174">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
@@ -9892,9 +9881,9 @@
         <f>VLOOKUP(A9,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D9" s="152" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>REGRI / Desarrollo de Sistemas</v>
+      <c r="D9" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A9,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A9,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A9,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>REGRI / PP_PMC</v>
       </c>
       <c r="E9" s="95" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:H$23,6,FALSE)</f>
@@ -9905,49 +9894,49 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G9" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="H9" s="154" t="s">
+        <v>158</v>
+      </c>
+      <c r="H9" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I9" s="154" t="s">
+      <c r="I9" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="J9" s="153" t="str">
+      <c r="J9" s="152" t="str">
         <f>VLOOKUP(A9,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K9" s="157"/>
-      <c r="L9" s="156">
+      <c r="K9" s="156"/>
+      <c r="L9" s="155">
         <f>VLOOKUP(A9,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M9" s="156">
+      <c r="M9" s="155">
         <f>VLOOKUP(A9,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N9" s="186">
+      <c r="N9" s="184">
         <v>1</v>
       </c>
-      <c r="O9" s="176" t="s">
-        <v>207</v>
+      <c r="O9" s="175" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="10" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
-      <c r="A10" s="175">
+      <c r="A10" s="174">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="B10" s="168">
+      <c r="B10" s="167">
         <v>1</v>
       </c>
       <c r="C10" s="112" t="str">
         <f>VLOOKUP(A10,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D10" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>ACCPRO / Desarrollo de Sistemas</v>
+      <c r="D10" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A10,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A10,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>ACCPRO / PP_PMC</v>
       </c>
       <c r="E10" s="112" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:H$23,6,FALSE)</f>
@@ -9958,49 +9947,49 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G10" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="H10" s="154" t="s">
+        <v>175</v>
+      </c>
+      <c r="H10" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I10" s="154" t="s">
+      <c r="I10" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="154" t="str">
+      <c r="J10" s="153" t="str">
         <f>VLOOKUP(A10,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K10" s="157"/>
-      <c r="L10" s="170">
+      <c r="K10" s="156"/>
+      <c r="L10" s="169">
         <f>VLOOKUP(A10,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M10" s="170">
+      <c r="M10" s="169">
         <f>VLOOKUP(A10,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N10" s="186">
+      <c r="N10" s="184">
         <v>1</v>
       </c>
-      <c r="O10" s="176" t="s">
-        <v>208</v>
+      <c r="O10" s="175" t="s">
+        <v>203</v>
       </c>
     </row>
     <row r="11" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
-      <c r="A11" s="175">
+      <c r="A11" s="174">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="B11" s="168">
+      <c r="B11" s="167">
         <v>1</v>
       </c>
       <c r="C11" s="112" t="str">
         <f>VLOOKUP(A11,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D11" s="169" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>ACREPRO / Desarrollo de Sistemas</v>
+      <c r="D11" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A11,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A11,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>ACREPRO / PP_PMC</v>
       </c>
       <c r="E11" s="112" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:H$23,6,FALSE)</f>
@@ -10011,36 +10000,36 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G11" s="113" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="154" t="s">
+        <v>175</v>
+      </c>
+      <c r="H11" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I11" s="154" t="s">
+      <c r="I11" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="J11" s="154" t="str">
+      <c r="J11" s="153" t="str">
         <f>VLOOKUP(A11,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K11" s="157"/>
-      <c r="L11" s="170">
+      <c r="K11" s="156"/>
+      <c r="L11" s="169">
         <f>VLOOKUP(A11,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M11" s="170">
+      <c r="M11" s="169">
         <f>VLOOKUP(A11,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N11" s="186">
+      <c r="N11" s="184">
         <v>1</v>
       </c>
-      <c r="O11" s="176" t="s">
-        <v>209</v>
+      <c r="O11" s="175" t="s">
+        <v>204</v>
       </c>
     </row>
     <row r="12" spans="1:15" ht="42" customHeight="1">
-      <c r="A12" s="175">
+      <c r="A12" s="174">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
@@ -10051,9 +10040,9 @@
         <f>VLOOKUP(A12,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D12" s="152" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>AREXT / Desarrollo de Sistemas</v>
+      <c r="D12" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A12,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A12,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A12,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>AREXT / PROY</v>
       </c>
       <c r="E12" s="95" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:H$23,6,FALSE)</f>
@@ -10064,36 +10053,36 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G12" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="H12" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="H12" s="152" t="s">
         <v>122</v>
       </c>
-      <c r="I12" s="153" t="s">
+      <c r="I12" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="J12" s="153" t="str">
+      <c r="J12" s="152" t="str">
         <f>VLOOKUP(A12,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K12" s="155"/>
-      <c r="L12" s="156">
+      <c r="K12" s="154"/>
+      <c r="L12" s="155">
         <f>VLOOKUP(A12,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M12" s="156">
+      <c r="M12" s="155">
         <f>VLOOKUP(A12,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N12" s="186">
+      <c r="N12" s="184">
         <v>1</v>
       </c>
-      <c r="O12" s="176" t="s">
-        <v>210</v>
+      <c r="O12" s="175" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:15" ht="42" customHeight="1">
-      <c r="A13" s="175">
+      <c r="A13" s="174">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
@@ -10104,9 +10093,9 @@
         <f>VLOOKUP(A13,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D13" s="152" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>IAQUIN / Desarrollo de Sistemas</v>
+      <c r="D13" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A13,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A13,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A13,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>IAQUIN / PROY</v>
       </c>
       <c r="E13" s="95" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:H$23,6,FALSE)</f>
@@ -10117,36 +10106,36 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G13" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="H13" s="153" t="s">
+        <v>158</v>
+      </c>
+      <c r="H13" s="152" t="s">
         <v>114</v>
       </c>
-      <c r="I13" s="153" t="s">
+      <c r="I13" s="152" t="s">
         <v>90</v>
       </c>
-      <c r="J13" s="153" t="str">
+      <c r="J13" s="152" t="str">
         <f>VLOOKUP(A13,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K13" s="155"/>
-      <c r="L13" s="156">
+      <c r="K13" s="154"/>
+      <c r="L13" s="155">
         <f>VLOOKUP(A13,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M13" s="156">
+      <c r="M13" s="155">
         <f>VLOOKUP(A13,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N13" s="186">
+      <c r="N13" s="184">
         <v>1</v>
       </c>
-      <c r="O13" s="176" t="s">
-        <v>211</v>
+      <c r="O13" s="175" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="14" spans="1:15" s="114" customFormat="1" ht="42" customHeight="1">
-      <c r="A14" s="175">
+      <c r="A14" s="174">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
@@ -10157,9 +10146,9 @@
         <f>VLOOKUP(A14,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D14" s="152" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>ARINT / Desarrollo de Sistemas</v>
+      <c r="D14" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A14,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A14,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A14,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>ARINT / PROY</v>
       </c>
       <c r="E14" s="95" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:H$23,6,FALSE)</f>
@@ -10170,85 +10159,85 @@
         <v>Carluis Oyola</v>
       </c>
       <c r="G14" s="96" t="s">
-        <v>162</v>
-      </c>
-      <c r="H14" s="154" t="s">
+        <v>158</v>
+      </c>
+      <c r="H14" s="153" t="s">
         <v>114</v>
       </c>
-      <c r="I14" s="154" t="s">
+      <c r="I14" s="153" t="s">
         <v>90</v>
       </c>
-      <c r="J14" s="153" t="str">
+      <c r="J14" s="152" t="str">
         <f>VLOOKUP(A14,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K14" s="157"/>
-      <c r="L14" s="156">
+      <c r="K14" s="156"/>
+      <c r="L14" s="155">
         <f>VLOOKUP(A14,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M14" s="156">
+      <c r="M14" s="155">
         <f>VLOOKUP(A14,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N14" s="186">
+      <c r="N14" s="184">
         <v>1</v>
       </c>
-      <c r="O14" s="176" t="s">
-        <v>212</v>
+      <c r="O14" s="175" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="15" spans="1:15" ht="42" customHeight="1" thickBot="1">
-      <c r="A15" s="178">
+      <c r="A15" s="177">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="B15" s="179">
+      <c r="B15" s="178">
         <v>1</v>
       </c>
-      <c r="C15" s="180" t="str">
+      <c r="C15" s="179" t="str">
         <f>VLOOKUP(A15,Planificación!$B$13:$F$70,3,FALSE)</f>
         <v>Desarrollo de Sistemas</v>
       </c>
-      <c r="D15" s="181" t="str">
-        <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$23,3,FALSE))</f>
-        <v>ACENTRE / Desarrollo de Sistemas</v>
-      </c>
-      <c r="E15" s="180" t="str">
+      <c r="D15" s="168" t="str">
+        <f>CONCATENATE(LEFT(VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),FIND("_",VLOOKUP(A15,Planificación!B$13:H$23,5,FALSE),1)-1)," / ",VLOOKUP(A15,Planificación!B$13:H$23,4,FALSE))</f>
+        <v>ACENTRE / PROY</v>
+      </c>
+      <c r="E15" s="179" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:H$23,6,FALSE)</f>
         <v>Benji Santillan</v>
       </c>
-      <c r="F15" s="180" t="str">
+      <c r="F15" s="179" t="str">
         <f>VLOOKUP(A15,Planificación!$B$13:$H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="G15" s="182" t="s">
-        <v>162</v>
-      </c>
-      <c r="H15" s="183" t="s">
+      <c r="G15" s="180" t="s">
+        <v>158</v>
+      </c>
+      <c r="H15" s="181" t="s">
         <v>114</v>
       </c>
-      <c r="I15" s="183" t="s">
+      <c r="I15" s="181" t="s">
         <v>90</v>
       </c>
-      <c r="J15" s="183" t="str">
+      <c r="J15" s="181" t="str">
         <f>VLOOKUP(A15,Planificación!B$13:H$23,7,FALSE)</f>
         <v>Carluis Oyola</v>
       </c>
-      <c r="K15" s="184"/>
-      <c r="L15" s="185">
+      <c r="K15" s="182"/>
+      <c r="L15" s="183">
         <f>VLOOKUP(A15,Planificación!B$13:N$23,9,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="M15" s="185">
+      <c r="M15" s="183">
         <f>VLOOKUP(A15,Planificación!B$13:N$23,12,FALSE)</f>
         <v>42522</v>
       </c>
-      <c r="N15" s="187">
+      <c r="N15" s="185">
         <v>1</v>
       </c>
-      <c r="O15" s="176" t="s">
-        <v>213</v>
+      <c r="O15" s="175" t="s">
+        <v>208</v>
       </c>
     </row>
   </sheetData>
@@ -10290,7 +10279,7 @@
   <dimension ref="A2:P62"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10306,15 +10295,15 @@
   <sheetData>
     <row r="2" spans="1:12" s="1" customFormat="1" ht="17.25" customHeight="1">
       <c r="A2" s="10"/>
-      <c r="C2" s="253" t="s">
-        <v>182</v>
-      </c>
-      <c r="D2" s="253"/>
-      <c r="E2" s="253"/>
-      <c r="F2" s="253"/>
-      <c r="G2" s="253"/>
-      <c r="H2" s="253"/>
-      <c r="I2" s="253"/>
+      <c r="C2" s="251" t="s">
+        <v>178</v>
+      </c>
+      <c r="D2" s="251"/>
+      <c r="E2" s="251"/>
+      <c r="F2" s="251"/>
+      <c r="G2" s="251"/>
+      <c r="H2" s="251"/>
+      <c r="I2" s="251"/>
       <c r="J2" s="146"/>
       <c r="K2" s="146"/>
       <c r="L2" s="146"/>
@@ -10324,65 +10313,65 @@
     </row>
     <row r="4" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A4" s="11"/>
-      <c r="C4" s="247" t="s">
+      <c r="C4" s="245" t="s">
         <v>128</v>
       </c>
-      <c r="D4" s="247"/>
-      <c r="E4" s="248" t="str">
+      <c r="D4" s="245"/>
+      <c r="E4" s="246" t="str">
         <f>IF(Planificación!E6&lt;&gt;"",Planificación!E6,"")</f>
         <v>Benji Santillan Torres</v>
       </c>
-      <c r="F4" s="249"/>
-      <c r="G4" s="249"/>
-      <c r="H4" s="249"/>
-      <c r="I4" s="250"/>
+      <c r="F4" s="247"/>
+      <c r="G4" s="247"/>
+      <c r="H4" s="247"/>
+      <c r="I4" s="248"/>
     </row>
     <row r="5" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A5" s="11"/>
-      <c r="C5" s="251" t="str">
+      <c r="C5" s="249" t="str">
         <f>Planificación!B7</f>
         <v>Analista de Calidad</v>
       </c>
-      <c r="D5" s="252"/>
-      <c r="E5" s="248" t="str">
+      <c r="D5" s="250"/>
+      <c r="E5" s="246" t="str">
         <f>IF(Planificación!E7&lt;&gt;"",Planificación!E7,"")</f>
         <v>Carluis Oyola Laynes</v>
       </c>
-      <c r="F5" s="249"/>
-      <c r="G5" s="249"/>
-      <c r="H5" s="249"/>
-      <c r="I5" s="250"/>
+      <c r="F5" s="247"/>
+      <c r="G5" s="247"/>
+      <c r="H5" s="247"/>
+      <c r="I5" s="248"/>
     </row>
     <row r="6" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A6" s="11"/>
-      <c r="C6" s="255" t="s">
+      <c r="C6" s="253" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="256"/>
-      <c r="E6" s="248" t="str">
+      <c r="D6" s="254"/>
+      <c r="E6" s="246" t="str">
         <f>IF(Planificación!E8&lt;&gt;"",Planificación!E8,"")</f>
         <v>Benji Santillan Torres , Carluis Oyola Laynes</v>
       </c>
-      <c r="F6" s="249"/>
-      <c r="G6" s="249"/>
-      <c r="H6" s="249"/>
-      <c r="I6" s="250"/>
+      <c r="F6" s="247"/>
+      <c r="G6" s="247"/>
+      <c r="H6" s="247"/>
+      <c r="I6" s="248"/>
     </row>
     <row r="7" spans="1:12" s="2" customFormat="1" ht="24" customHeight="1">
       <c r="A7" s="11"/>
-      <c r="C7" s="258" t="s">
+      <c r="C7" s="256" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="258"/>
-      <c r="E7" s="259">
+      <c r="D7" s="256"/>
+      <c r="E7" s="257">
         <f>IF(Planificación!E9&lt;&gt;"",Planificación!E9,"")</f>
         <v>42506</v>
       </c>
-      <c r="F7" s="260"/>
-      <c r="G7" s="261" t="s">
+      <c r="F7" s="258"/>
+      <c r="G7" s="259" t="s">
         <v>21</v>
       </c>
-      <c r="H7" s="262"/>
+      <c r="H7" s="260"/>
       <c r="I7" s="97">
         <f>IF(Planificación!G9&lt;&gt;"",Planificación!G9,"")</f>
         <v>42522</v>
@@ -10390,24 +10379,24 @@
     </row>
     <row r="8" spans="1:12" s="2" customFormat="1" ht="12.75" customHeight="1">
       <c r="A8" s="11"/>
-      <c r="C8" s="258" t="s">
+      <c r="C8" s="256" t="s">
         <v>1</v>
       </c>
-      <c r="D8" s="263"/>
-      <c r="E8" s="248" t="str">
+      <c r="D8" s="261"/>
+      <c r="E8" s="246" t="str">
         <f>IF(Planificación!E10&lt;&gt;"",Planificación!E10,"")</f>
         <v>MAYO</v>
       </c>
-      <c r="F8" s="249"/>
-      <c r="G8" s="249"/>
-      <c r="H8" s="249"/>
-      <c r="I8" s="250"/>
+      <c r="F8" s="247"/>
+      <c r="G8" s="247"/>
+      <c r="H8" s="247"/>
+      <c r="I8" s="248"/>
     </row>
     <row r="13" spans="1:12" ht="15">
-      <c r="C13" s="257" t="s">
+      <c r="C13" s="255" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="257"/>
+      <c r="D13" s="255"/>
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
@@ -10417,7 +10406,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="C14" s="99" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D14" s="150">
         <v>3</v>
@@ -10433,7 +10422,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="C16" s="99" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="D16" s="149">
         <v>1</v>
@@ -10489,10 +10478,10 @@
       <c r="E24" s="9"/>
     </row>
     <row r="26" spans="3:14" ht="15" customHeight="1">
-      <c r="C26" s="254" t="s">
+      <c r="C26" s="252" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="254"/>
+      <c r="D26" s="252"/>
     </row>
     <row r="27" spans="3:14">
       <c r="C27" s="30" t="s">
@@ -10566,10 +10555,10 @@
       </c>
     </row>
     <row r="40" spans="3:16" ht="15">
-      <c r="C40" s="254" t="s">
+      <c r="C40" s="252" t="s">
         <v>102</v>
       </c>
-      <c r="D40" s="254"/>
+      <c r="D40" s="252"/>
       <c r="P40" s="144"/>
     </row>
     <row r="41" spans="3:16">
@@ -10600,10 +10589,10 @@
       </c>
     </row>
     <row r="57" spans="3:4" ht="15">
-      <c r="C57" s="254" t="s">
+      <c r="C57" s="252" t="s">
         <v>113</v>
       </c>
-      <c r="D57" s="254"/>
+      <c r="D57" s="252"/>
     </row>
     <row r="58" spans="3:4">
       <c r="C58" s="30" t="s">
@@ -10687,7 +10676,7 @@
   <dimension ref="A2:K42"/>
   <sheetViews>
     <sheetView zoomScale="75" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -10738,7 +10727,7 @@
         <v>124</v>
       </c>
       <c r="E3" s="118" t="s">
-        <v>149</v>
+        <v>212</v>
       </c>
       <c r="G3" s="102" t="s">
         <v>90</v>
@@ -10749,7 +10738,7 @@
       </c>
       <c r="J3" s="106"/>
       <c r="K3" s="115" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="12.75" customHeight="1">
@@ -10760,7 +10749,7 @@
       </c>
       <c r="D4" s="106"/>
       <c r="E4" s="118" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="G4" s="102" t="s">
         <v>92</v>
@@ -10771,7 +10760,7 @@
       </c>
       <c r="J4" s="106"/>
       <c r="K4" s="115" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="12.75" customHeight="1">
@@ -10782,7 +10771,7 @@
       </c>
       <c r="D5" s="106"/>
       <c r="E5" s="131" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G5" s="102" t="s">
         <v>93</v>
@@ -10793,7 +10782,7 @@
       </c>
       <c r="J5" s="106"/>
       <c r="K5" s="115" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="12.75" customHeight="1">
@@ -10804,7 +10793,7 @@
       </c>
       <c r="D6" s="106"/>
       <c r="E6" s="118" t="s">
-        <v>137</v>
+        <v>211</v>
       </c>
       <c r="H6" s="106"/>
       <c r="I6" s="102" t="s">
@@ -10812,7 +10801,7 @@
       </c>
       <c r="J6" s="106"/>
       <c r="K6" s="115" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="12.75" customHeight="1">
@@ -10823,7 +10812,7 @@
       </c>
       <c r="D7" s="106"/>
       <c r="E7" s="118" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="H7" s="106"/>
       <c r="I7" s="102" t="s">
@@ -10836,11 +10825,11 @@
       <c r="A8" s="136"/>
       <c r="B8" s="136"/>
       <c r="C8" s="147" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="D8" s="106"/>
       <c r="E8" s="118" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H8" s="106"/>
       <c r="I8" s="102" t="s">
@@ -10855,7 +10844,7 @@
       <c r="C9" s="136"/>
       <c r="D9" s="106"/>
       <c r="E9" s="118" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="12.75" customHeight="1">
@@ -10864,7 +10853,7 @@
       <c r="C10" s="136"/>
       <c r="D10" s="106"/>
       <c r="E10" s="118" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="12.75" customHeight="1">
@@ -10873,7 +10862,7 @@
       <c r="C11" s="136"/>
       <c r="D11" s="106"/>
       <c r="E11" s="118" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="12.75" customHeight="1">
@@ -10882,7 +10871,7 @@
       <c r="C12" s="136"/>
       <c r="D12" s="106"/>
       <c r="E12" s="132" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="12.75" customHeight="1">
@@ -10891,7 +10880,7 @@
       <c r="C13" s="136"/>
       <c r="D13" s="106"/>
       <c r="E13" s="132" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="12.75" customHeight="1">
@@ -10900,7 +10889,7 @@
       <c r="C14" s="136"/>
       <c r="D14" s="106"/>
       <c r="E14" s="132" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="12.75" customHeight="1">
@@ -10909,7 +10898,7 @@
       <c r="C15" s="136"/>
       <c r="D15" s="106"/>
       <c r="E15" s="132" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="12.75" customHeight="1">
@@ -10918,7 +10907,7 @@
       <c r="C16" s="136"/>
       <c r="D16" s="106"/>
       <c r="E16" s="132" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="12.75" customHeight="1">
@@ -10927,7 +10916,7 @@
       <c r="C17" s="136"/>
       <c r="D17" s="106"/>
       <c r="E17" s="132" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="12.75" customHeight="1">
@@ -10936,7 +10925,7 @@
       <c r="C18" s="136"/>
       <c r="D18" s="106"/>
       <c r="E18" s="132" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="12.75" customHeight="1">
@@ -10945,7 +10934,7 @@
       <c r="C19" s="136"/>
       <c r="D19" s="106"/>
       <c r="E19" s="133" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1">
@@ -10954,7 +10943,7 @@
       <c r="C20" s="136"/>
       <c r="D20" s="106"/>
       <c r="E20" s="132" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1">
@@ -10963,7 +10952,7 @@
       <c r="C21" s="136"/>
       <c r="D21" s="106"/>
       <c r="E21" s="132" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="12.75" customHeight="1">
@@ -10972,7 +10961,7 @@
       <c r="C22" s="136"/>
       <c r="D22" s="106"/>
       <c r="E22" s="132" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="12.75" customHeight="1">
@@ -10981,7 +10970,7 @@
       <c r="C23" s="136"/>
       <c r="D23" s="106"/>
       <c r="E23" s="132" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="12.75" customHeight="1">
@@ -10990,7 +10979,7 @@
       <c r="C24" s="136"/>
       <c r="D24" s="106"/>
       <c r="E24" s="132" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1">
@@ -10999,7 +10988,7 @@
       <c r="C25" s="136"/>
       <c r="D25" s="106"/>
       <c r="E25" s="132" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="12.75" customHeight="1">
@@ -11008,7 +10997,7 @@
       <c r="C26" s="136"/>
       <c r="D26" s="106"/>
       <c r="E26" s="132" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="12.75" customHeight="1">
@@ -11026,7 +11015,7 @@
       <c r="C28" s="136"/>
       <c r="D28" s="106"/>
       <c r="E28" s="132" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="12.75" customHeight="1">
@@ -11035,7 +11024,7 @@
       <c r="C29" s="136"/>
       <c r="D29" s="106"/>
       <c r="E29" s="132" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="12.75" customHeight="1">
@@ -11044,7 +11033,7 @@
       <c r="C30" s="136"/>
       <c r="D30" s="106"/>
       <c r="E30" s="132" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="12.75" customHeight="1">
@@ -11053,7 +11042,7 @@
       <c r="C31" s="136"/>
       <c r="D31" s="106"/>
       <c r="E31" s="132" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="12.75" customHeight="1">
@@ -11062,7 +11051,7 @@
       <c r="C32" s="136"/>
       <c r="D32" s="106"/>
       <c r="E32" s="132" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="12.75" customHeight="1">
@@ -11071,7 +11060,7 @@
       <c r="C33" s="136"/>
       <c r="D33" s="106"/>
       <c r="E33" s="134" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="12.75" customHeight="1">
@@ -11080,7 +11069,7 @@
       <c r="C34" s="136"/>
       <c r="D34" s="106"/>
       <c r="E34" s="132" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="12.75" customHeight="1">
@@ -11089,7 +11078,7 @@
       <c r="C35" s="136"/>
       <c r="D35" s="106"/>
       <c r="E35" s="132" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="12.75" customHeight="1">
@@ -11098,7 +11087,7 @@
       <c r="C36" s="136"/>
       <c r="D36" s="137"/>
       <c r="E36" s="132" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="12.75" customHeight="1">
@@ -11107,7 +11096,7 @@
       <c r="C37" s="136"/>
       <c r="D37" s="137"/>
       <c r="E37" s="135" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="12.75" customHeight="1">
@@ -11116,7 +11105,7 @@
       <c r="C38" s="136"/>
       <c r="D38" s="138"/>
       <c r="E38" s="135" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="12.75" customHeight="1">
@@ -11125,7 +11114,7 @@
       <c r="C39" s="136"/>
       <c r="D39" s="138"/>
       <c r="E39" s="135" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="12.75" customHeight="1">
@@ -11134,7 +11123,7 @@
       <c r="C40" s="136"/>
       <c r="D40" s="138"/>
       <c r="E40" s="135" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="12.75" customHeight="1">
@@ -11143,7 +11132,7 @@
       <c r="C41" s="136"/>
       <c r="D41" s="138"/>
       <c r="E41" s="135" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
     </row>
     <row r="42" spans="1:5">
